--- a/Q5_results.xlsx
+++ b/Q5_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spyros\EWEM\1_Semester\46300_Wind_Turbine_Technology_and_Aerodynamics\Assignments\Assignment_1\WTTA_BEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C7E739-066E-49F3-A7E1-EDC354F11192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ADC4B8-B458-4F30-88FE-7E82EE878436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BEM" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>V_0</t>
   </si>
@@ -112,6 +113,30 @@
   </si>
   <si>
     <t>FOR LATEX</t>
+  </si>
+  <si>
+    <t>C_P_max</t>
+  </si>
+  <si>
+    <t>Wilson \&amp; Walker</t>
+  </si>
+  <si>
+    <t>Glauret</t>
+  </si>
+  <si>
+    <t>theta_p</t>
+  </si>
+  <si>
+    <t>lamda</t>
+  </si>
+  <si>
+    <t>$C_P$ [-]</t>
+  </si>
+  <si>
+    <t>$\theta_p$ [deg]</t>
+  </si>
+  <si>
+    <t>$\lambda$ [-]</t>
   </si>
 </sst>
 </file>
@@ -198,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,15 +240,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +247,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,29 +573,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -837,27 +863,27 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="str">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="str">
         <f>D2</f>
         <v>C_P</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="D10" s="3" t="s">
@@ -1286,41 +1312,41 @@
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C25" s="2" t="s">
@@ -1346,122 +1372,122 @@
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <f>C11</f>
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <f>ROUND(D11,1)</f>
+        <f t="shared" ref="D26:E29" si="8">ROUND(D11,1)</f>
         <v>891.6</v>
       </c>
       <c r="E26" s="2">
-        <f>ROUND(E11,1)</f>
+        <f t="shared" si="8"/>
         <v>887.2</v>
       </c>
       <c r="F26" s="2">
-        <f>ROUND(G11,1)</f>
+        <f t="shared" ref="F26:G29" si="9">ROUND(G11,1)</f>
         <v>319.39999999999998</v>
       </c>
       <c r="G26" s="2">
-        <f>ROUND(H11,1)</f>
+        <f t="shared" si="9"/>
         <v>317.8</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <f>ROUND(ABS((E26-D26)/E26)*100, 2)</f>
         <v>0.5</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <f>ROUND(ABS((G26-F26)/G26)*100, 2)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <f>C12</f>
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <f>ROUND(D12,1)</f>
+        <f t="shared" si="8"/>
         <v>5199.8</v>
       </c>
       <c r="E27" s="2">
-        <f>ROUND(E12,1)</f>
+        <f t="shared" si="8"/>
         <v>5174.3</v>
       </c>
       <c r="F27" s="2">
-        <f>ROUND(G12,1)</f>
+        <f t="shared" si="9"/>
         <v>1034.8</v>
       </c>
       <c r="G27" s="2">
-        <f>ROUND(H12,1)</f>
+        <f t="shared" si="9"/>
         <v>1029.8</v>
       </c>
-      <c r="H27" s="9">
-        <f t="shared" ref="H27:H29" si="8">ROUND(ABS((E27-D27)/E27)*100, 2)</f>
+      <c r="H27" s="6">
+        <f t="shared" ref="H27:H29" si="10">ROUND(ABS((E27-D27)/E27)*100, 2)</f>
         <v>0.49</v>
       </c>
-      <c r="I27" s="9">
-        <f t="shared" ref="I27:I29" si="9">ROUND(ABS((G27-F27)/G27)*100, 2)</f>
+      <c r="I27" s="6">
+        <f t="shared" ref="I27:I29" si="11">ROUND(ABS((G27-F27)/G27)*100, 2)</f>
         <v>0.49</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <f>C13</f>
         <v>11</v>
       </c>
       <c r="D28" s="2">
-        <f>ROUND(D13,1)</f>
+        <f t="shared" si="8"/>
         <v>9493.7000000000007</v>
       </c>
       <c r="E28" s="2">
-        <f>ROUND(E13,1)</f>
+        <f t="shared" si="8"/>
         <v>9447.1</v>
       </c>
       <c r="F28" s="2">
-        <f>ROUND(G13,1)</f>
+        <f t="shared" si="9"/>
         <v>1545.7</v>
       </c>
       <c r="G28" s="2">
-        <f>ROUND(H13,1)</f>
+        <f t="shared" si="9"/>
         <v>1538.3</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="8"/>
+      <c r="H28" s="6">
+        <f t="shared" si="10"/>
         <v>0.49</v>
       </c>
-      <c r="I28" s="9">
-        <f t="shared" si="9"/>
+      <c r="I28" s="6">
+        <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C29" s="10">
+      <c r="C29" s="7">
         <f>C14</f>
         <v>20</v>
       </c>
       <c r="D29" s="2">
-        <f>ROUND(D14,1)</f>
+        <f t="shared" si="8"/>
         <v>10887.4</v>
       </c>
       <c r="E29" s="2">
-        <f>ROUND(E14,1)</f>
+        <f t="shared" si="8"/>
         <v>10715.8</v>
       </c>
       <c r="F29" s="2">
-        <f>ROUND(G14,1)</f>
+        <f t="shared" si="9"/>
         <v>689.4</v>
       </c>
       <c r="G29" s="2">
-        <f>ROUND(H14,1)</f>
+        <f t="shared" si="9"/>
         <v>675.9</v>
       </c>
-      <c r="H29" s="9">
-        <f t="shared" si="8"/>
+      <c r="H29" s="6">
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
-      <c r="I29" s="9">
-        <f t="shared" si="9"/>
+      <c r="I29" s="6">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -1469,18 +1495,18 @@
       <c r="C31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C32" s="2" t="s">
@@ -1506,127 +1532,134 @@
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C33" s="10">
+      <c r="C33" s="7">
         <f>C26</f>
         <v>5</v>
       </c>
       <c r="D33" s="2">
-        <f>ROUND(J11/100,3)</f>
+        <f t="shared" ref="D33:E36" si="12">ROUND(J11/100,3)</f>
         <v>0.46600000000000003</v>
       </c>
       <c r="E33" s="2">
-        <f>ROUND(K11/100,3)</f>
+        <f t="shared" si="12"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F33" s="2">
-        <f>ROUND(M11/100,3)</f>
+        <f t="shared" ref="F33:G36" si="13">ROUND(M11/100,3)</f>
         <v>0.83499999999999996</v>
       </c>
       <c r="G33" s="2">
-        <f>ROUND(N11/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="6">
         <f>ROUND(ABS((E33-D33)/E33)*100, 2)</f>
         <v>0.22</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="6">
         <f>ROUND(ABS((G33-F33)/G33)*100, 2)</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C34" s="10">
-        <f t="shared" ref="C34:C36" si="10">C27</f>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:C36" si="14">C27</f>
         <v>9</v>
       </c>
       <c r="D34" s="2">
-        <f>ROUND(J12/100,3)</f>
+        <f t="shared" si="12"/>
         <v>0.46600000000000003</v>
       </c>
       <c r="E34" s="2">
-        <f>ROUND(K12/100,3)</f>
+        <f t="shared" si="12"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F34" s="2">
-        <f>ROUND(M12/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="G34" s="2">
-        <f>ROUND(N12/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="H34" s="9">
-        <f t="shared" ref="H34:H36" si="11">ROUND(ABS((E34-D34)/E34)*100, 2)</f>
+      <c r="H34" s="6">
+        <f t="shared" ref="H34:H36" si="15">ROUND(ABS((E34-D34)/E34)*100, 2)</f>
         <v>0.22</v>
       </c>
-      <c r="I34" s="9">
-        <f t="shared" ref="I34:I36" si="12">ROUND(ABS((G34-F34)/G34)*100, 2)</f>
+      <c r="I34" s="6">
+        <f t="shared" ref="I34:I36" si="16">ROUND(ABS((G34-F34)/G34)*100, 2)</f>
         <v>0.24</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C35" s="10">
-        <f t="shared" si="10"/>
+      <c r="C35" s="7">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <f>ROUND(J13/100,3)</f>
+        <f t="shared" si="12"/>
         <v>0.46600000000000003</v>
       </c>
       <c r="E35" s="2">
-        <f>ROUND(K13/100,3)</f>
+        <f t="shared" si="12"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F35" s="2">
-        <f>ROUND(M13/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="G35" s="2">
-        <f>ROUND(N13/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.83299999999999996</v>
       </c>
-      <c r="H35" s="9">
-        <f t="shared" si="11"/>
+      <c r="H35" s="6">
+        <f t="shared" si="15"/>
         <v>0.22</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="6">
+        <f t="shared" si="16"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C36" s="7">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
         <f t="shared" si="12"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C36" s="10">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="D36" s="2">
-        <f>ROUND(J14/100,3)</f>
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="E36" s="2">
-        <f>ROUND(K14/100,3)</f>
+        <f t="shared" si="12"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F36" s="2">
-        <f>ROUND(M14/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.113</v>
       </c>
       <c r="G36" s="2">
-        <f>ROUND(N14/100,3)</f>
+        <f t="shared" si="13"/>
         <v>0.111</v>
       </c>
-      <c r="H36" s="9">
-        <f t="shared" si="11"/>
+      <c r="H36" s="6">
+        <f t="shared" si="15"/>
         <v>1.1399999999999999</v>
       </c>
-      <c r="I36" s="9">
-        <f t="shared" si="12"/>
+      <c r="I36" s="6">
+        <f t="shared" si="16"/>
         <v>1.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="C22:I23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="D24:E24"/>
@@ -1634,15 +1667,126 @@
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3040F8C-AEE3-4599-86B7-5CB00511DB7F}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12">
+        <v>7.95</v>
+      </c>
+      <c r="E6">
+        <v>-2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.95</v>
+      </c>
+      <c r="F10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E11">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="F11">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>